--- a/biology/Botanique/Forêt_Houlda/Forêt_Houlda.xlsx
+++ b/biology/Botanique/Forêt_Houlda/Forêt_Houlda.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>For%C3%AAt_Houlda</t>
+          <t>Forêt_Houlda</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La Forêt Houlda (hébreu : יער חולדה) appelée également Forêt Herzl est situé à l'est du kibboutz Houlda. Première forêt plantée en Israël par le FNJ La forêt est plantée en 1907 en souvenir de Theodor Herzl, mort en 1904. Elle est composée des forêts de Ben-Shemen et de celles de Houlda. La Forêt Houlda est principalement composée d'oliviers, financés par les Juifs de Diaspora.
  Portail d’Israël   Portail du bois et de la forêt                    </t>
